--- a/USERS/s13353_Dmytro_Kravchenko/s13353.xlsx
+++ b/USERS/s13353_Dmytro_Kravchenko/s13353.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpions2000\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -35,13 +25,13 @@
     <t>Goal in Context</t>
   </si>
   <si>
-    <t>Coffee-machine expects action from the client, beverage choice for make.</t>
+    <t>The Drinker select recipe, Coffee-Maker start prepare drink.</t>
   </si>
   <si>
     <t>Scope &amp; Level</t>
   </si>
   <si>
-    <t>Company, Summary</t>
+    <t>Summary, Coffee-Maker.</t>
   </si>
   <si>
     <t>Preconditions</t>
@@ -53,13 +43,14 @@
     <t>Success End Condition</t>
   </si>
   <si>
-    <t>Buyer has goods; we have money for the goods.</t>
+    <t>Coffe-Maker has started payment process.</t>
   </si>
   <si>
     <t>Failed End Condition</t>
   </si>
   <si>
-    <t>We ask the buyer to select other drink. Either return the money is not purchased drink.</t>
+    <t>Drinker hasn't selected the drinkю Coffe-Maker hasn't prepared drink. Coffee-Maker is in
+a Waiting State.</t>
   </si>
   <si>
     <t>Primary, Secondary Actors</t>
@@ -133,19 +124,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -285,40 +275,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -326,7 +316,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,39 +339,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,334 +450,358 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D20"/>
+      <selection activeCell="B2" sqref="B2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="2:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
